--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_12_3.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_12_3.xlsx
@@ -478,373 +478,373 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_22</t>
+          <t>model_12_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.750743897672578</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5491717247148435</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.918306170382462</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4164878685173127</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2758530974388123</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G2" t="n">
-        <v>1.081096291542053</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7121461629867554</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9074727892875671</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_17</t>
+          <t>model_12_3_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7529809851178521</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5605719984894801</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.89148210124642</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4272694294907087</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2733772695064545</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G3" t="n">
-        <v>1.053758144378662</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7072709202766418</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I3" t="n">
-        <v>0.890705406665802</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_18</t>
+          <t>model_12_3_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7565717439036749</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5690331976598634</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.913546658943999</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4329642218725877</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2694033682346344</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G4" t="n">
-        <v>1.033468008041382</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7112811207771301</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8818488717079163</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_16</t>
+          <t>model_12_3_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7568198551381292</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5623619097758583</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.718544532296478</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4382420688265596</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2691287398338318</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G5" t="n">
-        <v>1.049465775489807</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6758397817611694</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I5" t="n">
-        <v>0.873640775680542</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_21</t>
+          <t>model_12_3_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7573538453712202</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5627485191599508</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.827409682793729</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4325702224523732</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2685378193855286</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G6" t="n">
-        <v>1.04853880405426</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H6" t="n">
-        <v>0.695625901222229</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8824616670608521</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_15</t>
+          <t>model_12_3_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7602542347178185</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5708594480639595</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.66863490760166</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4479224214294434</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2653279006481171</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G7" t="n">
-        <v>1.029088497161865</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6667687892913818</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8585860729217529</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_20</t>
+          <t>model_12_3_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7604672466377149</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5760065132125358</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.874170476765618</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4408213487190963</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2650921642780304</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G8" t="n">
-        <v>1.016745924949646</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7041245698928833</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8696295619010925</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_19</t>
+          <t>model_12_3_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7618587514989755</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C9" t="n">
-        <v>0.579381014006617</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.857094356690523</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4445148836077822</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F9" t="n">
-        <v>0.263552188873291</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G9" t="n">
-        <v>1.00865364074707</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7010210156440735</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8638854026794434</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_14</t>
+          <t>model_12_3_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7654528647389797</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5841881566888418</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.602081698264426</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4624642346256723</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2595745623111725</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G10" t="n">
-        <v>0.997126042842865</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6546728610992432</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8359707593917847</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_24</t>
+          <t>model_12_3_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5501361230886217</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.228355257595151</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4552203001763936</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G11" t="n">
-        <v>1.078783631324768</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5867486000061035</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8472364544868469</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_23</t>
+          <t>model_12_3_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5501361230886217</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.228355257595151</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4552203001763936</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G12" t="n">
-        <v>1.078783631324768</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5867486000061035</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8472364544868469</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_13</t>
+          <t>model_12_3_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7760776103360418</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6091671623361097</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.477696304881384</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4896952160987486</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2478161007165909</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G13" t="n">
-        <v>0.937225878238678</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H13" t="n">
-        <v>0.632066011428833</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7936214208602905</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="14">
@@ -854,400 +854,400 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.779390878403315</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6240116605372923</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.500238326755432</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5005743603689158</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2441492825746536</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9016284942626953</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6361629962921143</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7767022848129272</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_11</t>
+          <t>model_12_3_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7828001803007785</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C15" t="n">
-        <v>0.637294864487883</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.485058676814346</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5122517671632927</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2403762191534042</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8697749972343445</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6334040760993958</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7585416436195374</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_10</t>
+          <t>model_12_3_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7952693398227858</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6640172294357769</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.322439128895152</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5430092729187859</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F16" t="n">
-        <v>0.226576492190361</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8056941628456116</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6038482189178467</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7107078433036804</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_9</t>
+          <t>model_12_3_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8054276954234023</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6913140300295691</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.221914357476811</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5708213408985603</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2153342068195343</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7402358651161194</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5855779647827148</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6674547791481018</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_8</t>
+          <t>model_12_3_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.812733784907484</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7111074290154833</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.09827501908339</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5937778611953837</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2072485238313675</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G18" t="n">
-        <v>0.692770779132843</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5631067752838135</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6317529678344727</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_7</t>
+          <t>model_12_3_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8180156875590645</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7298398645956465</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.021949326885489</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6132677690413733</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2014030069112778</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6478500366210938</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5492346286773682</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6014425158500671</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_0</t>
+          <t>model_12_3_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8196315305398844</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8477936724186772</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.787810296214543</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7224329675518886</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1996147334575653</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3649941682815552</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5066802501678467</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4316697418689728</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_6</t>
+          <t>model_12_3_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8240029438445007</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7506655360287366</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.925005620118617</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6355996721101763</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1947768777608871</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5979096293449402</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5316152572631836</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5667120814323425</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_1</t>
+          <t>model_12_3_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8259387033535275</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C22" t="n">
-        <v>0.823016953263185</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.638983094807221</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7103915937886909</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1926345676183701</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4244092702865601</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4796311557292938</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4503963887691498</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_5</t>
+          <t>model_12_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8281470886892018</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7706626196931439</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.846217653463157</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6562571135067812</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1901905387639999</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5499561429023743</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5172957181930542</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5345858335494995</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_4</t>
+          <t>model_12_3_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8312301952721264</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7804570104424445</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.699414465077445</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6723257141199833</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1867784410715103</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5264689922332764</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4906144440174103</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I24" t="n">
-        <v>0.509596049785614</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_2</t>
+          <t>model_12_3_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8314635655638121</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8127906019377298</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.616365232393298</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7032866497073611</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1865201741456985</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4489323198795319</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4755204021930695</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4614459276199341</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_3</t>
+          <t>model_12_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8321819261918976</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7973394765663075</v>
+        <v>-0.55836533523947</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.624819653402346</v>
+        <v>0.3303799136176995</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6902101727748629</v>
+        <v>0.2441725364439876</v>
       </c>
       <c r="F26" t="n">
-        <v>0.185725137591362</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4859844446182251</v>
+        <v>0.3218813836574554</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4770569503307343</v>
+        <v>0.5454630851745605</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4817822873592377</v>
+        <v>0.4270963668823242</v>
       </c>
     </row>
   </sheetData>
